--- a/biology/Virologie/Angine_herpétique/Angine_herpétique.xlsx
+++ b/biology/Virologie/Angine_herpétique/Angine_herpétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Angine_herp%C3%A9tique</t>
+          <t>Angine_herpétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angine herpétique est une affection aigüe de la gorge réalisant une angine vésiculeuse, due au virus Herpes simplex, le plus souvent lors d'une primo-infection par le HSV de type 1.
 Elle est relativement rare, souvent confondue avec l'herpangine, fréquente et bénigne, due au virus coxsackie A.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Angine_herp%C3%A9tique</t>
+          <t>Angine_herpétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Tableau clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'angine herpétique réalise le tableau suivant[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angine herpétique réalise le tableau suivant :
 Début brutal avec une fièvre élevée à 39-−40°, des frissonnements et une dysphagie douloureuse intense.
 Apparition en quelques heures de bouquets de petites vésicules hyalines sur des tonsilles rouge vif. Ces vésicules s'érodent et à la phase d'état on retrouve des ulcérations superficielles à bords nets recouvertes de taches blanches d'exsudat entourées d'un halo rouge inflammatoire, confluant parfois en une fausse membrane à contour polycyclique.
 Un herpès de la narine ou labial est souvent associé.
